--- a/Data for Project One tk.csv.xlsx
+++ b/Data for Project One tk.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tig/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tig/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFFAC90-600C-AB4E-BC60-3F589B381C83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D454339-2E84-FD4C-8B33-F14C07B061C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="1060" windowWidth="25200" windowHeight="16300" xr2:uid="{F5CFF1D6-3364-470A-867C-3C3C06224521}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1FE12-01C4-4052-96C1-EACE650E7C23}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,7 +1723,7 @@
         <v>84683</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>96460</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>474069</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>73529</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>898553</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>655057</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>137</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>174365</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>49528</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>139</v>
       </c>
@@ -1840,8 +1840,11 @@
       <c r="F40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>141</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
